--- a/src/main/resources/文档.xlsx
+++ b/src/main/resources/文档.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E69064E-4670-442B-B796-8A9F2B8B962D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52F9732-B8CE-4232-B94B-D71940737E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5283ED6-571D-4D01-A8F2-F26F468A4513}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="网络" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,11 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="41">
-  <si>
-    <t>网络框架</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
   <si>
     <t>TCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -195,6 +191,21 @@
   </si>
   <si>
     <t>物理层</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BIO</t>
+  </si>
+  <si>
+    <t>NIO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传输层协议</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -559,194 +570,206 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6D2F9-B374-4589-B832-79FF7336403D}">
-  <dimension ref="B6:W58"/>
+  <dimension ref="B6:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="P45" sqref="P45"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="6" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N6" t="s">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="T6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N7" t="s">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" t="s">
+        <v>33</v>
+      </c>
+      <c r="R8" t="s">
+        <v>6</v>
+      </c>
+      <c r="S8" t="s">
+        <v>21</v>
+      </c>
+      <c r="T8" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="L8" t="s">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="C9" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" t="s">
+        <v>34</v>
+      </c>
+      <c r="T9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="D16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D19" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="20" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D21" t="s">
+        <v>38</v>
+      </c>
+      <c r="S21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D22" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="G39" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D40" t="s">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="G41" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="D43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="R48" t="s">
         <v>7</v>
       </c>
-      <c r="M8" t="s">
-        <v>22</v>
-      </c>
-      <c r="N8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="N9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="7:14" x14ac:dyDescent="0.2">
-      <c r="G16" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D17" t="s">
-        <v>1</v>
-      </c>
-      <c r="E17" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B18" t="s">
-        <v>0</v>
-      </c>
-      <c r="G18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="D20" t="s">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="L33" t="s">
+      <c r="S48" t="s">
         <v>8</v>
       </c>
-      <c r="M33" t="s">
+    </row>
+    <row r="52" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="V52" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="T53" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P37" t="s">
+    <row r="54" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="V54" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="N38" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P39" t="s">
+      <c r="X54" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC54" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="55" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="V55" t="s">
         <v>12</v>
       </c>
-      <c r="R39" t="s">
+      <c r="X55" t="s">
         <v>14</v>
       </c>
-      <c r="W39" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="P40" t="s">
-        <v>13</v>
-      </c>
-      <c r="R40" t="s">
+      <c r="AC55" t="s">
         <v>15</v>
       </c>
-      <c r="W40" t="s">
+    </row>
+    <row r="59" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="W59" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="60" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="V60" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C42" t="s">
-        <v>28</v>
-      </c>
-      <c r="E42" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C43" t="s">
-        <v>29</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="B44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C44" t="s">
-        <v>30</v>
-      </c>
-      <c r="E44" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q44" t="s">
+      <c r="W60" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="C45" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" t="s">
-        <v>35</v>
-      </c>
-      <c r="P45" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q45" t="s">
+    <row r="61" spans="20:29" x14ac:dyDescent="0.2">
+      <c r="W61" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
-      <c r="Q46" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D52" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B53" t="s">
-        <v>36</v>
-      </c>
-      <c r="D53" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D54" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D55" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D56" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D57" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="D58" t="s">
+    <row r="70" spans="19:20" x14ac:dyDescent="0.2">
+      <c r="S70" t="s">
         <v>40</v>
+      </c>
+      <c r="T70" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="90" spans="20:20" x14ac:dyDescent="0.2">
+      <c r="T90" t="s">
+        <v>42</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/文档.xlsx
+++ b/src/main/resources/文档.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\JavaDemo\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52F9732-B8CE-4232-B94B-D71940737E7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E932CAF1-CF3A-4DD4-9198-F79D4680073D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{B5283ED6-571D-4D01-A8F2-F26F468A4513}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{B5283ED6-571D-4D01-A8F2-F26F468A4513}"/>
   </bookViews>
   <sheets>
     <sheet name="网络" sheetId="1" r:id="rId1"/>
+    <sheet name="Java面试题收集" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="59">
   <si>
     <t>TCP</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -206,6 +207,66 @@
   </si>
   <si>
     <t>传输层协议</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>写二叉树以及反转</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>滑动窗口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mmo技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>场景视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>跨服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JVM调优</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>G1GC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP、UDP、KCP的区别</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态同步</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寻路算法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>压力测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分布式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为树</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>状态机</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{44B6D2F9-B374-4589-B832-79FF7336403D}">
   <dimension ref="B6:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView topLeftCell="E1" workbookViewId="0">
       <selection activeCell="T21" sqref="T21"/>
     </sheetView>
   </sheetViews>
@@ -777,4 +838,96 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{279C99C5-5209-483B-B69B-F15D6AE7C699}">
+  <dimension ref="B4:B59"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B29" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B45" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B50" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B54" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B59" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>